--- a/datos_sigmoid_prop.xlsx
+++ b/datos_sigmoid_prop.xlsx
@@ -413,7 +413,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:J9"/>
+  <dimension ref="A1:J12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -757,6 +757,114 @@
         </is>
       </c>
     </row>
+    <row r="10">
+      <c r="A10" t="n">
+        <v>2</v>
+      </c>
+      <c r="B10" t="n">
+        <v>5</v>
+      </c>
+      <c r="C10" t="n">
+        <v>0.03241915702819824</v>
+      </c>
+      <c r="D10" t="n">
+        <v>0.0002059459686279297</v>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="G10" t="n">
+        <v>25.18098589566815</v>
+      </c>
+      <c r="H10" t="n">
+        <v>115.2669023548936</v>
+      </c>
+      <c r="I10" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="J10" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="n">
+        <v>3</v>
+      </c>
+      <c r="B11" t="n">
+        <v>5</v>
+      </c>
+      <c r="C11" t="n">
+        <v>0.03232913017272949</v>
+      </c>
+      <c r="D11" t="n">
+        <v>0.0002065181732177734</v>
+      </c>
+      <c r="E11" t="n">
+        <v>0.0002054452896118164</v>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="G11" t="n">
+        <v>0.003223695604871795</v>
+      </c>
+      <c r="H11" t="n">
+        <v>1.53936889926457e-07</v>
+      </c>
+      <c r="I11" t="n">
+        <v>1.043872808906363e-09</v>
+      </c>
+      <c r="J11" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="n">
+        <v>4</v>
+      </c>
+      <c r="B12" t="n">
+        <v>5</v>
+      </c>
+      <c r="C12" t="n">
+        <v>0.03248062133789063</v>
+      </c>
+      <c r="D12" t="n">
+        <v>0.0002078056335449219</v>
+      </c>
+      <c r="E12" t="n">
+        <v>0.0002081871032714844</v>
+      </c>
+      <c r="F12" t="n">
+        <v>0.0002062559127807617</v>
+      </c>
+      <c r="G12" t="n">
+        <v>0.002271449279772691</v>
+      </c>
+      <c r="H12" t="n">
+        <v>2.301749113326428e-07</v>
+      </c>
+      <c r="I12" t="n">
+        <v>9.48983518381393e-12</v>
+      </c>
+      <c r="J12" t="n">
+        <v>4.775090641905705e-14</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/datos_sigmoid_prop.xlsx
+++ b/datos_sigmoid_prop.xlsx
@@ -413,7 +413,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:J12"/>
+  <dimension ref="A1:J18"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -865,6 +865,222 @@
         <v>4.775090641905705e-14</v>
       </c>
     </row>
+    <row r="13">
+      <c r="A13" t="n">
+        <v>2</v>
+      </c>
+      <c r="B13" t="n">
+        <v>5</v>
+      </c>
+      <c r="C13" t="n">
+        <v>0.01745495796203613</v>
+      </c>
+      <c r="D13" t="n">
+        <v>0.0002380847930908203</v>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="G13" t="n">
+        <v>1556.897459526997</v>
+      </c>
+      <c r="H13" t="n">
+        <v>53.42706865370273</v>
+      </c>
+      <c r="I13" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="J13" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="n">
+        <v>3</v>
+      </c>
+      <c r="B14" t="n">
+        <v>5</v>
+      </c>
+      <c r="C14" t="n">
+        <v>0.01735796928405762</v>
+      </c>
+      <c r="D14" t="n">
+        <v>0.0002238273620605469</v>
+      </c>
+      <c r="E14" t="n">
+        <v>0.0001846075057983398</v>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="G14" t="n">
+        <v>1508.663689091857</v>
+      </c>
+      <c r="H14" t="n">
+        <v>18.82330651581287</v>
+      </c>
+      <c r="I14" t="n">
+        <v>56.20102568750455</v>
+      </c>
+      <c r="J14" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="n">
+        <v>4</v>
+      </c>
+      <c r="B15" t="n">
+        <v>5</v>
+      </c>
+      <c r="C15" t="n">
+        <v>0.01741828918457031</v>
+      </c>
+      <c r="D15" t="n">
+        <v>0.0002213954925537109</v>
+      </c>
+      <c r="E15" t="n">
+        <v>0.0001859664916992188</v>
+      </c>
+      <c r="F15" t="n">
+        <v>0.0001866340637207031</v>
+      </c>
+      <c r="G15" t="n">
+        <v>1219.086772766871</v>
+      </c>
+      <c r="H15" t="n">
+        <v>14.18856327608228</v>
+      </c>
+      <c r="I15" t="n">
+        <v>16.47401355229003</v>
+      </c>
+      <c r="J15" t="n">
+        <v>45.07964007758523</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="n">
+        <v>2</v>
+      </c>
+      <c r="B16" t="n">
+        <v>10</v>
+      </c>
+      <c r="C16" t="n">
+        <v>0.01744699478149414</v>
+      </c>
+      <c r="D16" t="n">
+        <v>0.0003603219985961914</v>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="G16" t="n">
+        <v>55.03327262932999</v>
+      </c>
+      <c r="H16" t="n">
+        <v>18.22020287938356</v>
+      </c>
+      <c r="I16" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="J16" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="n">
+        <v>3</v>
+      </c>
+      <c r="B17" t="n">
+        <v>10</v>
+      </c>
+      <c r="C17" t="n">
+        <v>0.01740915775299072</v>
+      </c>
+      <c r="D17" t="n">
+        <v>0.0003921747207641602</v>
+      </c>
+      <c r="E17" t="n">
+        <v>0.0003604412078857422</v>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="G17" t="n">
+        <v>1170.255784616864</v>
+      </c>
+      <c r="H17" t="n">
+        <v>25.28940092027187</v>
+      </c>
+      <c r="I17" t="n">
+        <v>52.63421927345538</v>
+      </c>
+      <c r="J17" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="n">
+        <v>4</v>
+      </c>
+      <c r="B18" t="n">
+        <v>10</v>
+      </c>
+      <c r="C18" t="n">
+        <v>0.01747832298278808</v>
+      </c>
+      <c r="D18" t="n">
+        <v>0.0003899574279785156</v>
+      </c>
+      <c r="E18" t="n">
+        <v>0.0003583908081054688</v>
+      </c>
+      <c r="F18" t="n">
+        <v>0.0003568887710571289</v>
+      </c>
+      <c r="G18" t="n">
+        <v>1270.311034161085</v>
+      </c>
+      <c r="H18" t="n">
+        <v>24.69789488181268</v>
+      </c>
+      <c r="I18" t="n">
+        <v>30.10360034704919</v>
+      </c>
+      <c r="J18" t="n">
+        <v>59.73620572154057</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/datos_sigmoid_prop.xlsx
+++ b/datos_sigmoid_prop.xlsx
@@ -413,7 +413,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:J18"/>
+  <dimension ref="A1:J6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -426,13 +426,13 @@
         <v>2</v>
       </c>
       <c r="B1" t="n">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="C1" t="n">
-        <v>0.03142225742340088</v>
+        <v>0.01713724136352539</v>
       </c>
       <c r="D1" t="n">
-        <v>0.0003816366195678711</v>
+        <v>0.0002390623092651367</v>
       </c>
       <c r="E1" t="inlineStr">
         <is>
@@ -445,10 +445,10 @@
         </is>
       </c>
       <c r="G1" t="n">
-        <v>132.417331387211</v>
+        <v>1556.897459526997</v>
       </c>
       <c r="H1" t="n">
-        <v>3267.152811897084</v>
+        <v>53.42706865370273</v>
       </c>
       <c r="I1" t="inlineStr">
         <is>
@@ -466,16 +466,16 @@
         <v>3</v>
       </c>
       <c r="B2" t="n">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="C2" t="n">
-        <v>0.03327059745788574</v>
+        <v>0.01731863021850586</v>
       </c>
       <c r="D2" t="n">
-        <v>0.0004100322723388672</v>
+        <v>0.0002251148223876953</v>
       </c>
       <c r="E2" t="n">
-        <v>0.0004770994186401367</v>
+        <v>0.0001848697662353516</v>
       </c>
       <c r="F2" t="inlineStr">
         <is>
@@ -483,15 +483,13 @@
         </is>
       </c>
       <c r="G2" t="n">
-        <v>108.780838085094</v>
+        <v>1508.663689091857</v>
       </c>
       <c r="H2" t="n">
-        <v>1240.197777889142</v>
-      </c>
-      <c r="I2" t="inlineStr">
-        <is>
-          <t>inf</t>
-        </is>
+        <v>18.82330651581287</v>
+      </c>
+      <c r="I2" t="n">
+        <v>56.20102568750455</v>
       </c>
       <c r="J2" t="inlineStr">
         <is>
@@ -504,33 +502,31 @@
         <v>4</v>
       </c>
       <c r="B3" t="n">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="C3" t="n">
-        <v>0.03345887660980225</v>
+        <v>0.01726527214050293</v>
       </c>
       <c r="D3" t="n">
-        <v>0.0004109859466552734</v>
+        <v>0.0002218246459960937</v>
       </c>
       <c r="E3" t="n">
-        <v>0.0004104375839233398</v>
+        <v>0.0001854896545410156</v>
       </c>
       <c r="F3" t="n">
-        <v>0.0005101680755615235</v>
+        <v>0.0001848220825195313</v>
       </c>
       <c r="G3" t="n">
-        <v>99.9787108715938</v>
+        <v>1219.086772766871</v>
       </c>
       <c r="H3" t="n">
-        <v>412.0092885952674</v>
+        <v>14.18856327608228</v>
       </c>
       <c r="I3" t="n">
-        <v>3759.41148211723</v>
-      </c>
-      <c r="J3" t="inlineStr">
-        <is>
-          <t>inf</t>
-        </is>
+        <v>16.47401355229003</v>
+      </c>
+      <c r="J3" t="n">
+        <v>45.07964007758523</v>
       </c>
     </row>
     <row r="4">
@@ -538,13 +534,13 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>25</v>
+        <v>10</v>
       </c>
       <c r="C4" t="n">
-        <v>0.03340326309204102</v>
+        <v>0.01720499992370605</v>
       </c>
       <c r="D4" t="n">
-        <v>0.0009961366653442384</v>
+        <v>0.0003525495529174805</v>
       </c>
       <c r="E4" t="inlineStr">
         <is>
@@ -557,10 +553,10 @@
         </is>
       </c>
       <c r="G4" t="n">
-        <v>126.6700949600108</v>
+        <v>55.03327262932999</v>
       </c>
       <c r="H4" t="n">
-        <v>4894.719137332707</v>
+        <v>18.22020287938356</v>
       </c>
       <c r="I4" t="inlineStr">
         <is>
@@ -578,16 +574,16 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>25</v>
+        <v>10</v>
       </c>
       <c r="C5" t="n">
-        <v>0.0330770492553711</v>
+        <v>0.01720457077026367</v>
       </c>
       <c r="D5" t="n">
-        <v>0.0009975719451904297</v>
+        <v>0.0003830671310424805</v>
       </c>
       <c r="E5" t="n">
-        <v>0.001077651977539062</v>
+        <v>0.0003553390502929688</v>
       </c>
       <c r="F5" t="inlineStr">
         <is>
@@ -595,15 +591,13 @@
         </is>
       </c>
       <c r="G5" t="n">
-        <v>98.62772605105221</v>
+        <v>1170.255784616864</v>
       </c>
       <c r="H5" t="n">
-        <v>1192.731349797834</v>
-      </c>
-      <c r="I5" t="inlineStr">
-        <is>
-          <t>inf</t>
-        </is>
+        <v>25.28940092027187</v>
+      </c>
+      <c r="I5" t="n">
+        <v>52.63421927345538</v>
       </c>
       <c r="J5" t="inlineStr">
         <is>
@@ -616,468 +610,30 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>25</v>
+        <v>10</v>
       </c>
       <c r="C6" t="n">
-        <v>0.03336424827575683</v>
+        <v>0.01721799373626709</v>
       </c>
       <c r="D6" t="n">
-        <v>0.0009956645965576172</v>
+        <v>0.0003833293914794922</v>
       </c>
       <c r="E6" t="n">
-        <v>0.0009960174560546876</v>
+        <v>0.0003513097763061523</v>
       </c>
       <c r="F6" t="n">
-        <v>0.001243853569030762</v>
+        <v>0.0003507375717163086</v>
       </c>
       <c r="G6" t="n">
-        <v>76.95566350509866</v>
+        <v>1270.311034161085</v>
       </c>
       <c r="H6" t="n">
-        <v>634.1122055458087</v>
+        <v>24.69789488181268</v>
       </c>
       <c r="I6" t="n">
-        <v>8694.057408702964</v>
-      </c>
-      <c r="J6" t="inlineStr">
-        <is>
-          <t>inf</t>
-        </is>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" t="n">
-        <v>2</v>
-      </c>
-      <c r="B7" t="n">
-        <v>50</v>
-      </c>
-      <c r="C7" t="n">
-        <v>0.03343658447265625</v>
-      </c>
-      <c r="D7" t="n">
-        <v>0.001987552642822266</v>
-      </c>
-      <c r="E7" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="F7" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="G7" t="n">
-        <v>116.3479157002422</v>
-      </c>
-      <c r="H7" t="n">
-        <v>6159.326354726827</v>
-      </c>
-      <c r="I7" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="J7" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" t="n">
-        <v>3</v>
-      </c>
-      <c r="B8" t="n">
-        <v>50</v>
-      </c>
-      <c r="C8" t="n">
-        <v>0.03313978672027588</v>
-      </c>
-      <c r="D8" t="n">
-        <v>0.001978616714477539</v>
-      </c>
-      <c r="E8" t="n">
-        <v>0.002150535583496094</v>
-      </c>
-      <c r="F8" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="G8" t="n">
-        <v>87.1134025138757</v>
-      </c>
-      <c r="H8" t="n">
-        <v>1254.345475855377</v>
-      </c>
-      <c r="I8" t="inlineStr">
-        <is>
-          <t>inf</t>
-        </is>
-      </c>
-      <c r="J8" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" t="n">
-        <v>4</v>
-      </c>
-      <c r="B9" t="n">
-        <v>50</v>
-      </c>
-      <c r="C9" t="n">
-        <v>0.03333038806915283</v>
-      </c>
-      <c r="D9" t="n">
-        <v>0.001987299919128418</v>
-      </c>
-      <c r="E9" t="n">
-        <v>0.001975579261779785</v>
-      </c>
-      <c r="F9" t="n">
-        <v>0.002438879013061523</v>
-      </c>
-      <c r="G9" t="n">
-        <v>66.8254982481326</v>
-      </c>
-      <c r="H9" t="n">
-        <v>743.760954704694</v>
-      </c>
-      <c r="I9" t="n">
-        <v>11454.163194704</v>
-      </c>
-      <c r="J9" t="inlineStr">
-        <is>
-          <t>inf</t>
-        </is>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" t="n">
-        <v>2</v>
-      </c>
-      <c r="B10" t="n">
-        <v>5</v>
-      </c>
-      <c r="C10" t="n">
-        <v>0.03241915702819824</v>
-      </c>
-      <c r="D10" t="n">
-        <v>0.0002059459686279297</v>
-      </c>
-      <c r="E10" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="F10" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="G10" t="n">
-        <v>25.18098589566815</v>
-      </c>
-      <c r="H10" t="n">
-        <v>115.2669023548936</v>
-      </c>
-      <c r="I10" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="J10" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" t="n">
-        <v>3</v>
-      </c>
-      <c r="B11" t="n">
-        <v>5</v>
-      </c>
-      <c r="C11" t="n">
-        <v>0.03232913017272949</v>
-      </c>
-      <c r="D11" t="n">
-        <v>0.0002065181732177734</v>
-      </c>
-      <c r="E11" t="n">
-        <v>0.0002054452896118164</v>
-      </c>
-      <c r="F11" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="G11" t="n">
-        <v>0.003223695604871795</v>
-      </c>
-      <c r="H11" t="n">
-        <v>1.53936889926457e-07</v>
-      </c>
-      <c r="I11" t="n">
-        <v>1.043872808906363e-09</v>
-      </c>
-      <c r="J11" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-    </row>
-    <row r="12">
-      <c r="A12" t="n">
-        <v>4</v>
-      </c>
-      <c r="B12" t="n">
-        <v>5</v>
-      </c>
-      <c r="C12" t="n">
-        <v>0.03248062133789063</v>
-      </c>
-      <c r="D12" t="n">
-        <v>0.0002078056335449219</v>
-      </c>
-      <c r="E12" t="n">
-        <v>0.0002081871032714844</v>
-      </c>
-      <c r="F12" t="n">
-        <v>0.0002062559127807617</v>
-      </c>
-      <c r="G12" t="n">
-        <v>0.002271449279772691</v>
-      </c>
-      <c r="H12" t="n">
-        <v>2.301749113326428e-07</v>
-      </c>
-      <c r="I12" t="n">
-        <v>9.48983518381393e-12</v>
-      </c>
-      <c r="J12" t="n">
-        <v>4.775090641905705e-14</v>
-      </c>
-    </row>
-    <row r="13">
-      <c r="A13" t="n">
-        <v>2</v>
-      </c>
-      <c r="B13" t="n">
-        <v>5</v>
-      </c>
-      <c r="C13" t="n">
-        <v>0.01745495796203613</v>
-      </c>
-      <c r="D13" t="n">
-        <v>0.0002380847930908203</v>
-      </c>
-      <c r="E13" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="F13" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="G13" t="n">
-        <v>1556.897459526997</v>
-      </c>
-      <c r="H13" t="n">
-        <v>53.42706865370273</v>
-      </c>
-      <c r="I13" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="J13" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-    </row>
-    <row r="14">
-      <c r="A14" t="n">
-        <v>3</v>
-      </c>
-      <c r="B14" t="n">
-        <v>5</v>
-      </c>
-      <c r="C14" t="n">
-        <v>0.01735796928405762</v>
-      </c>
-      <c r="D14" t="n">
-        <v>0.0002238273620605469</v>
-      </c>
-      <c r="E14" t="n">
-        <v>0.0001846075057983398</v>
-      </c>
-      <c r="F14" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="G14" t="n">
-        <v>1508.663689091857</v>
-      </c>
-      <c r="H14" t="n">
-        <v>18.82330651581287</v>
-      </c>
-      <c r="I14" t="n">
-        <v>56.20102568750455</v>
-      </c>
-      <c r="J14" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-    </row>
-    <row r="15">
-      <c r="A15" t="n">
-        <v>4</v>
-      </c>
-      <c r="B15" t="n">
-        <v>5</v>
-      </c>
-      <c r="C15" t="n">
-        <v>0.01741828918457031</v>
-      </c>
-      <c r="D15" t="n">
-        <v>0.0002213954925537109</v>
-      </c>
-      <c r="E15" t="n">
-        <v>0.0001859664916992188</v>
-      </c>
-      <c r="F15" t="n">
-        <v>0.0001866340637207031</v>
-      </c>
-      <c r="G15" t="n">
-        <v>1219.086772766871</v>
-      </c>
-      <c r="H15" t="n">
-        <v>14.18856327608228</v>
-      </c>
-      <c r="I15" t="n">
-        <v>16.47401355229003</v>
-      </c>
-      <c r="J15" t="n">
-        <v>45.07964007758523</v>
-      </c>
-    </row>
-    <row r="16">
-      <c r="A16" t="n">
-        <v>2</v>
-      </c>
-      <c r="B16" t="n">
-        <v>10</v>
-      </c>
-      <c r="C16" t="n">
-        <v>0.01744699478149414</v>
-      </c>
-      <c r="D16" t="n">
-        <v>0.0003603219985961914</v>
-      </c>
-      <c r="E16" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="F16" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="G16" t="n">
-        <v>55.03327262932999</v>
-      </c>
-      <c r="H16" t="n">
-        <v>18.22020287938356</v>
-      </c>
-      <c r="I16" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="J16" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-    </row>
-    <row r="17">
-      <c r="A17" t="n">
-        <v>3</v>
-      </c>
-      <c r="B17" t="n">
-        <v>10</v>
-      </c>
-      <c r="C17" t="n">
-        <v>0.01740915775299072</v>
-      </c>
-      <c r="D17" t="n">
-        <v>0.0003921747207641602</v>
-      </c>
-      <c r="E17" t="n">
-        <v>0.0003604412078857422</v>
-      </c>
-      <c r="F17" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="G17" t="n">
-        <v>1170.255784616864</v>
-      </c>
-      <c r="H17" t="n">
-        <v>25.28940092027187</v>
-      </c>
-      <c r="I17" t="n">
-        <v>52.63421927345538</v>
-      </c>
-      <c r="J17" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-    </row>
-    <row r="18">
-      <c r="A18" t="n">
-        <v>4</v>
-      </c>
-      <c r="B18" t="n">
-        <v>10</v>
-      </c>
-      <c r="C18" t="n">
-        <v>0.01747832298278808</v>
-      </c>
-      <c r="D18" t="n">
-        <v>0.0003899574279785156</v>
-      </c>
-      <c r="E18" t="n">
-        <v>0.0003583908081054688</v>
-      </c>
-      <c r="F18" t="n">
-        <v>0.0003568887710571289</v>
-      </c>
-      <c r="G18" t="n">
-        <v>1270.311034161085</v>
-      </c>
-      <c r="H18" t="n">
-        <v>24.69789488181268</v>
-      </c>
-      <c r="I18" t="n">
         <v>30.10360034704919</v>
       </c>
-      <c r="J18" t="n">
+      <c r="J6" t="n">
         <v>59.73620572154057</v>
       </c>
     </row>
